--- a/test1diff-expected.xlsx
+++ b/test1diff-expected.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -735,249 +735,245 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>c-</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>2022-11-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D14" s="6" t="inlineStr">
+        <is>
+          <t>apricot</t>
+        </is>
+      </c>
+      <c r="E14" s="4" t="inlineStr">
+        <is>
+          <t>Washington</t>
+        </is>
+      </c>
+      <c r="F14" s="5" t="inlineStr">
+        <is>
+          <t>roundish</t>
+        </is>
+      </c>
+      <c r="G14" s="1" t="inlineStr">
+        <is>
+          <t>red-orange</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>c+</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>2022-11-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D15" s="6" t="inlineStr">
+        <is>
+          <t>apricot</t>
+        </is>
+      </c>
+      <c r="E15" s="4" t="inlineStr">
+        <is>
+          <t>Washington</t>
+        </is>
+      </c>
+      <c r="F15" s="5" t="inlineStr">
+        <is>
+          <t>roundish</t>
+        </is>
+      </c>
+      <c r="G15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>2022-11-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" s="1" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="E16" s="4" t="inlineStr">
+        <is>
+          <t>Maine</t>
+        </is>
+      </c>
+      <c r="F16" s="5" t="inlineStr"/>
+      <c r="G16" s="1" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="inlineStr"/>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>grapes</t>
+        </is>
+      </c>
+      <c r="E17" s="4" t="inlineStr"/>
+      <c r="F17" s="5" t="inlineStr">
+        <is>
+          <t>pebbles</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>purple</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="B14" s="4" t="inlineStr">
-        <is>
-          <t>2022-11-01 00:00:00</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>apricot</t>
-        </is>
-      </c>
-      <c r="E14" s="4" t="inlineStr">
-        <is>
-          <t>Washington</t>
-        </is>
-      </c>
-      <c r="F14" s="5" t="inlineStr">
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>2022-11-02 00:00:00</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>peach</t>
+        </is>
+      </c>
+      <c r="E18" s="4" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="F18" s="5" t="inlineStr">
         <is>
           <t>roundish</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>red-orange</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B15" s="4" t="inlineStr">
-        <is>
-          <t>2022-11-01 00:00:00</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D15" s="1" t="inlineStr">
-        <is>
-          <t>apple</t>
-        </is>
-      </c>
-      <c r="E15" s="4" t="inlineStr">
-        <is>
-          <t>Maine</t>
-        </is>
-      </c>
-      <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="1" t="inlineStr">
-        <is>
-          <t>red</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="B16" s="4" t="inlineStr"/>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>grapes</t>
-        </is>
-      </c>
-      <c r="E16" s="4" t="inlineStr"/>
-      <c r="F16" s="5" t="inlineStr">
-        <is>
-          <t>pebbles</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>purple</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="B17" s="4" t="inlineStr">
-        <is>
-          <t>2022-11-02 00:00:00</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>peach</t>
-        </is>
-      </c>
-      <c r="E17" s="4" t="inlineStr">
-        <is>
-          <t>Georgia</t>
-        </is>
-      </c>
-      <c r="F17" s="5" t="inlineStr">
-        <is>
-          <t>roundish</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>yellow-pink</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="6" t="inlineStr">
-        <is>
-          <t>c-</t>
-        </is>
-      </c>
-      <c r="B18" s="4" t="inlineStr">
-        <is>
-          <t>2022-11-05 00:00:00</t>
-        </is>
-      </c>
-      <c r="C18" s="6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D18" s="1" t="inlineStr">
-        <is>
-          <t>banana</t>
-        </is>
-      </c>
-      <c r="E18" s="4" t="inlineStr">
-        <is>
-          <t>Chile</t>
-        </is>
-      </c>
-      <c r="F18" s="5" t="inlineStr">
-        <is>
-          <t>oval</t>
-        </is>
-      </c>
-      <c r="G18" s="6" t="inlineStr">
-        <is>
-          <t>yellow</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="inlineStr">
         <is>
+          <t>c-</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>2022-11-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" s="1" t="inlineStr">
+        <is>
+          <t>banana</t>
+        </is>
+      </c>
+      <c r="E19" s="4" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="F19" s="5" t="inlineStr">
+        <is>
+          <t>oval</t>
+        </is>
+      </c>
+      <c r="G19" s="6" t="inlineStr">
+        <is>
+          <t>yellow</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
           <t>c+</t>
         </is>
       </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="B20" s="4" t="inlineStr">
         <is>
           <t>2022-11-05 00:00:00</t>
         </is>
       </c>
-      <c r="C19" s="6" t="inlineStr">
+      <c r="C20" s="6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
+      <c r="D20" s="2" t="inlineStr">
         <is>
           <t>mango</t>
         </is>
       </c>
-      <c r="E19" s="4" t="inlineStr">
+      <c r="E20" s="4" t="inlineStr">
         <is>
           <t>Chile</t>
         </is>
       </c>
-      <c r="F19" s="5" t="inlineStr">
+      <c r="F20" s="5" t="inlineStr">
         <is>
           <t>oval</t>
         </is>
       </c>
-      <c r="G19" s="6" t="inlineStr">
+      <c r="G20" s="6" t="inlineStr">
         <is>
           <t>yellow</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="B20" s="4" t="inlineStr">
-        <is>
-          <t>2022-11-03 00:00:00</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>plum</t>
-        </is>
-      </c>
-      <c r="E20" s="4" t="inlineStr">
-        <is>
-          <t>Alabama</t>
-        </is>
-      </c>
-      <c r="F20" s="5" t="inlineStr">
-        <is>
-          <t>round</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>purple</t>
         </is>
       </c>
     </row>
@@ -989,22 +985,22 @@
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>2022-11-06 00:00:00</t>
+          <t>2022-11-03 00:00:00</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>tangerine</t>
+          <t>plum</t>
         </is>
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>Alabama</t>
         </is>
       </c>
       <c r="F21" s="5" t="inlineStr">
@@ -1014,7 +1010,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>orange</t>
+          <t>purple</t>
         </is>
       </c>
     </row>
@@ -1026,278 +1022,285 @@
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
+          <t>2022-11-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>tangerine</t>
+        </is>
+      </c>
+      <c r="E22" s="4" t="inlineStr">
+        <is>
+          <t>California</t>
+        </is>
+      </c>
+      <c r="F22" s="5" t="inlineStr">
+        <is>
+          <t>round</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>orange</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
           <t>2022-11-05 00:00:00</t>
         </is>
       </c>
-      <c r="C22" s="3" t="inlineStr">
+      <c r="C23" s="3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>pineapple</t>
         </is>
       </c>
-      <c r="E22" s="4" t="inlineStr">
+      <c r="E23" s="4" t="inlineStr">
         <is>
           <t>Hawaii</t>
         </is>
       </c>
-      <c r="F22" s="5" t="inlineStr">
+      <c r="F23" s="5" t="inlineStr">
         <is>
           <t>spikey</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>green-yellow</t>
         </is>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="6" t="inlineStr">
-        <is>
-          <t>c-</t>
-        </is>
-      </c>
-      <c r="B23" s="4" t="inlineStr">
-        <is>
-          <t>2022-11-21 00:00:00</t>
-        </is>
-      </c>
-      <c r="C23" s="6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D23" s="6" t="inlineStr">
-        <is>
-          <t>dried mango</t>
-        </is>
-      </c>
-      <c r="E23" s="4" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
-      </c>
-      <c r="F23" s="5" t="inlineStr">
-        <is>
-          <t>flat</t>
-        </is>
-      </c>
-      <c r="G23" s="6" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="6" t="inlineStr">
         <is>
+          <t>c-</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>2022-11-21 00:00:00</t>
+        </is>
+      </c>
+      <c r="C24" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D24" s="6" t="inlineStr">
+        <is>
+          <t>dried mango</t>
+        </is>
+      </c>
+      <c r="E24" s="4" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="F24" s="5" t="inlineStr">
+        <is>
+          <t>flat</t>
+        </is>
+      </c>
+      <c r="G24" s="6" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
           <t>c+</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="B25" s="4" t="inlineStr">
         <is>
           <t>2022-11-21 00:00:00</t>
         </is>
       </c>
-      <c r="C24" s="6" t="inlineStr">
+      <c r="C25" s="6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="D24" s="6" t="inlineStr">
+      <c r="D25" s="6" t="inlineStr">
         <is>
           <t>dried mango</t>
         </is>
       </c>
-      <c r="E24" s="4" t="inlineStr">
+      <c r="E25" s="4" t="inlineStr">
         <is>
           <t>Thailand</t>
         </is>
       </c>
-      <c r="F24" s="5" t="inlineStr">
+      <c r="F25" s="5" t="inlineStr">
         <is>
           <t>flat</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr">
+      <c r="G25" s="2" t="inlineStr">
         <is>
           <t>orange</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="B26" s="4" t="inlineStr">
         <is>
           <t>2022-11-07 00:00:00</t>
         </is>
       </c>
-      <c r="C25" s="3" t="inlineStr">
+      <c r="C26" s="3" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>persimmon</t>
         </is>
       </c>
-      <c r="E25" s="4" t="inlineStr">
+      <c r="E26" s="4" t="inlineStr">
         <is>
           <t>Iran</t>
         </is>
       </c>
-      <c r="F25" s="5" t="inlineStr">
+      <c r="F26" s="5" t="inlineStr">
         <is>
           <t>acorn</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>deep orange</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="B26" s="4" t="inlineStr">
+      <c r="B27" s="4" t="inlineStr">
         <is>
           <t>2022-11-20 00:00:00</t>
         </is>
       </c>
-      <c r="C26" s="1" t="inlineStr">
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D26" s="1" t="inlineStr">
+      <c r="D27" s="1" t="inlineStr">
         <is>
           <t>coconut</t>
         </is>
       </c>
-      <c r="E26" s="4" t="inlineStr">
+      <c r="E27" s="4" t="inlineStr">
         <is>
           <t>Hawaii</t>
         </is>
       </c>
-      <c r="F26" s="5" t="inlineStr"/>
-      <c r="G26" s="1" t="inlineStr">
+      <c r="F27" s="5" t="inlineStr"/>
+      <c r="G27" s="1" t="inlineStr">
         <is>
           <t>brown</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="6" t="inlineStr">
-        <is>
-          <t>c-</t>
-        </is>
-      </c>
-      <c r="B27" s="4" t="inlineStr">
-        <is>
-          <t>2022-11-02 00:00:00</t>
-        </is>
-      </c>
-      <c r="C27" s="6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D27" s="6" t="inlineStr">
-        <is>
-          <t>papaya</t>
-        </is>
-      </c>
-      <c r="E27" s="4" t="inlineStr">
-        <is>
-          <t>Fiji</t>
-        </is>
-      </c>
-      <c r="F27" s="5" t="inlineStr">
-        <is>
-          <t>elongated</t>
-        </is>
-      </c>
-      <c r="G27" s="1" t="inlineStr">
-        <is>
-          <t>pink</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="6" t="inlineStr">
         <is>
+          <t>c-</t>
+        </is>
+      </c>
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>2022-11-02 00:00:00</t>
+        </is>
+      </c>
+      <c r="C28" s="6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D28" s="6" t="inlineStr">
+        <is>
+          <t>papaya</t>
+        </is>
+      </c>
+      <c r="E28" s="4" t="inlineStr">
+        <is>
+          <t>Fiji</t>
+        </is>
+      </c>
+      <c r="F28" s="5" t="inlineStr">
+        <is>
+          <t>elongated</t>
+        </is>
+      </c>
+      <c r="G28" s="1" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="6" t="inlineStr">
+        <is>
           <t>c+</t>
         </is>
       </c>
-      <c r="B28" s="4" t="inlineStr">
+      <c r="B29" s="4" t="inlineStr">
         <is>
           <t>2022-11-02 00:00:00</t>
         </is>
       </c>
-      <c r="C28" s="6" t="inlineStr">
+      <c r="C29" s="6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="D28" s="6" t="inlineStr">
+      <c r="D29" s="6" t="inlineStr">
         <is>
           <t>papaya</t>
         </is>
       </c>
-      <c r="E28" s="4" t="inlineStr">
+      <c r="E29" s="4" t="inlineStr">
         <is>
           <t>Fiji</t>
         </is>
       </c>
-      <c r="F28" s="5" t="inlineStr">
+      <c r="F29" s="5" t="inlineStr">
         <is>
           <t>elongated</t>
         </is>
       </c>
-      <c r="G28" s="2" t="inlineStr">
+      <c r="G29" s="2" t="inlineStr">
         <is>
           <t>salmon</t>
         </is>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B29" s="1" t="inlineStr"/>
-      <c r="C29" s="1" t="inlineStr"/>
-      <c r="D29" s="1" t="inlineStr"/>
-      <c r="E29" s="1" t="inlineStr"/>
-      <c r="F29" s="1" t="inlineStr"/>
-      <c r="G29" s="1" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>Trailing row here</t>
-        </is>
-      </c>
-      <c r="C30" s="1" t="inlineStr"/>
-      <c r="D30" s="1" t="inlineStr"/>
-      <c r="E30" s="1" t="inlineStr"/>
-      <c r="F30" s="1" t="inlineStr"/>
-      <c r="G30" s="1" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
